--- a/smeta.xlsx
+++ b/smeta.xlsx
@@ -478,7 +478,7 @@
         <v>200</v>
       </c>
       <c r="D3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -486,7 +486,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="4">
@@ -502,7 +502,7 @@
         <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -510,7 +510,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="5">
@@ -526,7 +526,7 @@
         <v>150</v>
       </c>
       <c r="D5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -534,7 +534,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2250</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="7">
